--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18576.20911724013</v>
+        <v>16651.6055503822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155034</v>
+        <v>3180051.965155036</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>62.248940656181</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>226.2350166920997</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>101.9509764710659</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>36.10708972509115</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>341.8733101690339</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>341.8733101690339</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>100.4925210601233</v>
+        <v>300.4154017281</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="X5" t="n">
-        <v>341.8733101690339</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>38.32908623792798</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1465075933366</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373487</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923662</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>3.303081866099603</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.97514044213757</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>74.24642379432741</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086004</v>
+        <v>3.080181780086122</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>169.866918177912</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301027</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>192.0997439427354</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>344.4133237467564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>94.59270453218362</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>49.53659395611906</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.6211591710418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>28.93383514625469</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>155.5402382479068</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>102.9208889409749</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>60.65811021293036</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.23390929204779</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>162.5920703590772</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4026336221606</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>100.9952556991008</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094039</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>73.50476564299073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.86101695904008</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>203.1464755155369</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2959,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>5.167616788619788</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141964</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094044</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>267.836266855725</v>
@@ -3010,13 +3010,13 @@
         <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>48.84472870141672</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,19 +3272,19 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
       </c>
       <c r="G35" t="n">
-        <v>343.8326266600505</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264121</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>338.7441556120708</v>
       </c>
       <c r="G38" t="n">
-        <v>343.8326266600505</v>
+        <v>343.8326266600496</v>
       </c>
       <c r="H38" t="n">
         <v>237.1553589816771</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555825</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088613</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310006</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
       </c>
       <c r="X44" t="n">
-        <v>301.5992105488284</v>
+        <v>301.599210548827</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696339</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696339</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696339</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T2" t="n">
-        <v>896.7353068029595</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="V2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="W2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="X2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="Y2" t="n">
-        <v>642.8621858041602</v>
+        <v>529.5587134138199</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>556.0971511667425</v>
+        <v>371.3410765414113</v>
       </c>
       <c r="C3" t="n">
-        <v>381.6441218856155</v>
+        <v>371.3410765414113</v>
       </c>
       <c r="D3" t="n">
-        <v>381.6441218856155</v>
+        <v>222.40666688016</v>
       </c>
       <c r="E3" t="n">
         <v>222.40666688016</v>
@@ -4404,25 +4404,25 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>439.1939517187799</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1001.645270495214</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1001.645270495214</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>1001.645270495214</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940352</v>
+        <v>1001.645270495214</v>
       </c>
       <c r="W3" t="n">
-        <v>971.7089501372293</v>
+        <v>747.4079137670121</v>
       </c>
       <c r="X3" t="n">
-        <v>763.8574499316965</v>
+        <v>539.5564135614793</v>
       </c>
       <c r="Y3" t="n">
-        <v>556.0971511667425</v>
+        <v>539.5564135614793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819.5106137005845</v>
+        <v>676.8400888195001</v>
       </c>
       <c r="C5" t="n">
-        <v>819.5106137005845</v>
+        <v>676.8400888195001</v>
       </c>
       <c r="D5" t="n">
-        <v>819.5106137005845</v>
+        <v>676.8400888195001</v>
       </c>
       <c r="E5" t="n">
-        <v>474.1840377722674</v>
+        <v>676.8400888195001</v>
       </c>
       <c r="F5" t="n">
-        <v>128.8574618439503</v>
+        <v>669.8945880702967</v>
       </c>
       <c r="G5" t="n">
-        <v>27.34986481352271</v>
+        <v>366.4446873348421</v>
       </c>
       <c r="H5" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082025</v>
+        <v>46.45889488081986</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943464</v>
+        <v>195.8431816943457</v>
       </c>
       <c r="L5" t="n">
-        <v>433.444226490979</v>
+        <v>433.4442264909778</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203075</v>
+        <v>714.4277151203061</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090389</v>
+        <v>985.325812809037</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860208</v>
+        <v>1195.939566860206</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313933</v>
+        <v>1338.019150313931</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="S5" t="n">
-        <v>1164.837189628902</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="T5" t="n">
-        <v>1164.837189628902</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="U5" t="n">
-        <v>1164.837189628902</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="V5" t="n">
-        <v>1164.837189628902</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="W5" t="n">
-        <v>1164.837189628902</v>
+        <v>1022.166664747817</v>
       </c>
       <c r="X5" t="n">
-        <v>819.5106137005845</v>
+        <v>676.8400888195001</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.5106137005845</v>
+        <v>676.8400888195001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>729.5548419389489</v>
+        <v>66.06611353870244</v>
       </c>
       <c r="C6" t="n">
-        <v>555.1018126578219</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="D6" t="n">
-        <v>555.1018126578219</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="E6" t="n">
-        <v>395.8643576523665</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="F6" t="n">
-        <v>249.3297996792515</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="G6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="H6" t="n">
-        <v>110.7979738273963</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="J6" t="n">
-        <v>45.03769252864053</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="K6" t="n">
-        <v>201.889850484335</v>
+        <v>184.202022769217</v>
       </c>
       <c r="L6" t="n">
-        <v>474.2013299011378</v>
+        <v>184.202022769217</v>
       </c>
       <c r="M6" t="n">
-        <v>758.1563350329161</v>
+        <v>522.6565998365598</v>
       </c>
       <c r="N6" t="n">
-        <v>758.1563350329161</v>
+        <v>852.4475113374602</v>
       </c>
       <c r="O6" t="n">
-        <v>1053.314601553662</v>
+        <v>1147.605777858206</v>
       </c>
       <c r="P6" t="n">
-        <v>1273.202064371589</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R6" t="n">
-        <v>1278.679140394079</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="S6" t="n">
-        <v>1108.958125493943</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="T6" t="n">
-        <v>1108.958125493943</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="U6" t="n">
-        <v>1108.958125493943</v>
+        <v>1139.282714489201</v>
       </c>
       <c r="V6" t="n">
-        <v>1108.958125493943</v>
+        <v>904.1306062574588</v>
       </c>
       <c r="W6" t="n">
-        <v>1105.62167916455</v>
+        <v>649.8932495292572</v>
       </c>
       <c r="X6" t="n">
-        <v>897.7701789590169</v>
+        <v>442.0417493237244</v>
       </c>
       <c r="Y6" t="n">
-        <v>897.7701789590169</v>
+        <v>234.2814505587705</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088231</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088231</v>
+        <v>30.46115954088238</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088231</v>
+        <v>30.46115954088238</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352266</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953553</v>
+        <v>78.97414292953533</v>
       </c>
       <c r="M7" t="n">
-        <v>143.793829039479</v>
+        <v>143.7938290394787</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147033</v>
+        <v>212.5068643147027</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039162</v>
+        <v>259.9581784039156</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461747</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461747</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461755</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="S7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="T7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="U7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="V7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="W7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="X7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.66837210869804</v>
+        <v>105.4575472119202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>812.4350080115848</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>401.4491032219773</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.353113282533</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>196.6941021971134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>294.1440025502357</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>294.1440025502357</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>294.1440025502357</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>294.1440025502357</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>147.2540550523253</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.002216560966</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550791</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181183</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181183</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>475.7924673804754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.4381409926461</v>
+        <v>711.3743239205528</v>
       </c>
       <c r="C16" t="n">
-        <v>542.4381409926461</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>542.4381409926461</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>394.525047410253</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
         <v>247.6350999123426</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1245.90475924008</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>991.2202710341936</v>
+        <v>1341.80491879234</v>
       </c>
       <c r="W16" t="n">
-        <v>991.2202710341936</v>
+        <v>1341.80491879234</v>
       </c>
       <c r="X16" t="n">
-        <v>763.2307201361763</v>
+        <v>1113.815367894323</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.4381409926461</v>
+        <v>893.0227887507925</v>
       </c>
     </row>
     <row r="17">
@@ -5598,16 +5598,16 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>881.7531914306751</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8170085027682</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904324</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.95577667813</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1171.170361467636</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.170361467636</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1171.170361467636</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W19" t="n">
-        <v>881.7531914306751</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X19" t="n">
-        <v>881.7531914306751</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.7531914306751</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.0733921265322</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C22" t="n">
-        <v>268.0733921265322</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D22" t="n">
-        <v>268.0733921265322</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E22" t="n">
-        <v>268.0733921265322</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>268.0733921265322</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1223.60675261561</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1223.60675261561</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983194</v>
+        <v>934.4781138291679</v>
       </c>
       <c r="X22" t="n">
-        <v>670.5144361003021</v>
+        <v>706.4885629311506</v>
       </c>
       <c r="Y22" t="n">
-        <v>449.7218569567719</v>
+        <v>706.4885629311506</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.5663192944025</v>
+        <v>480.651921202013</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>480.651921202013</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>480.651921202013</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>480.651921202013</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0481448185523</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>127.8168586116196</v>
@@ -6151,10 +6151,10 @@
         <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968143</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6163,34 +6163,34 @@
         <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.164719712909</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1552.164719712909</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1346.966259596205</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>1076.424575903554</v>
+        <v>987.57966925728</v>
       </c>
       <c r="V25" t="n">
-        <v>840.3270427914573</v>
+        <v>751.4821361451834</v>
       </c>
       <c r="W25" t="n">
-        <v>569.496827848287</v>
+        <v>480.651921202013</v>
       </c>
       <c r="X25" t="n">
-        <v>360.0942320440597</v>
+        <v>480.651921202013</v>
       </c>
       <c r="Y25" t="n">
-        <v>360.0942320440597</v>
+        <v>480.651921202013</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.1878156613365</v>
+        <v>452.5823803884434</v>
       </c>
       <c r="C28" t="n">
-        <v>108.1878156613365</v>
+        <v>378.3351423652205</v>
       </c>
       <c r="D28" t="n">
-        <v>108.1878156613365</v>
+        <v>246.805458046675</v>
       </c>
       <c r="E28" t="n">
-        <v>108.1878156613365</v>
+        <v>246.805458046675</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>246.805458046675</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422078</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949931</v>
+        <v>1439.454407940589</v>
       </c>
       <c r="U28" t="n">
-        <v>987.57966925728</v>
+        <v>1168.912724247938</v>
       </c>
       <c r="V28" t="n">
-        <v>751.4821361451834</v>
+        <v>932.8151911358409</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020131</v>
+        <v>661.9849761926706</v>
       </c>
       <c r="X28" t="n">
-        <v>271.2493253977859</v>
+        <v>452.5823803884434</v>
       </c>
       <c r="Y28" t="n">
-        <v>271.2493253977859</v>
+        <v>452.5823803884434</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>475.0599090052671</v>
+        <v>654.7838167735147</v>
       </c>
       <c r="C31" t="n">
-        <v>324.7106811711503</v>
+        <v>504.4345889393981</v>
       </c>
       <c r="D31" t="n">
-        <v>324.7106811711503</v>
+        <v>504.4345889393981</v>
       </c>
       <c r="E31" t="n">
-        <v>195.3845426825475</v>
+        <v>375.1084504507952</v>
       </c>
       <c r="F31" t="n">
-        <v>195.3845426825475</v>
+        <v>246.8054580466751</v>
       </c>
       <c r="G31" t="n">
-        <v>195.3845426825475</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,46 +6625,46 @@
         <v>296.2193375436548</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968151</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="R31" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="T31" t="n">
-        <v>1346.966259596205</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="U31" t="n">
-        <v>1076.424575903553</v>
+        <v>1374.111184364642</v>
       </c>
       <c r="V31" t="n">
-        <v>840.3270427914564</v>
+        <v>1138.013651252545</v>
       </c>
       <c r="W31" t="n">
-        <v>840.3270427914564</v>
+        <v>867.183436309375</v>
       </c>
       <c r="X31" t="n">
-        <v>840.3270427914564</v>
+        <v>817.8453265099641</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.1214187417165</v>
+        <v>817.8453265099641</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872895</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
         <v>344.8139583742029</v>
@@ -6947,37 +6947,37 @@
         <v>1922.078928549017</v>
       </c>
       <c r="N35" t="n">
-        <v>2284.650594485183</v>
+        <v>2717.624049653048</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234532</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490335</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799038</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
         <v>2243.29312148622</v>
@@ -7011,28 +7011,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>212.7178686028331</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>623.6081374473457</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L36" t="n">
-        <v>870.3732653538098</v>
+        <v>638.3057309129963</v>
       </c>
       <c r="M36" t="n">
-        <v>1177.693398633771</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.556026297804</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O36" t="n">
-        <v>1787.096091516501</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026569</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
         <v>456.9802240424963</v>
@@ -7081,28 +7081,28 @@
         <v>377.8872215001443</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422749</v>
+        <v>299.817365042275</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021366</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901211</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L37" t="n">
         <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N37" t="n">
         <v>1365.793566308212</v>
@@ -7129,16 +7129,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928555</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872895</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G38" t="n">
         <v>329.485680192289</v>
@@ -7169,7 +7169,7 @@
         <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
         <v>344.8139583742029</v>
@@ -7178,46 +7178,46 @@
         <v>868.2168169432326</v>
       </c>
       <c r="L38" t="n">
-        <v>1415.511460712184</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M38" t="n">
-        <v>1767.76941627417</v>
+        <v>1922.078928549017</v>
       </c>
       <c r="N38" t="n">
-        <v>2130.341082210336</v>
+        <v>2717.624049653048</v>
       </c>
       <c r="O38" t="n">
-        <v>2836.364143234532</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P38" t="n">
-        <v>3401.264108490335</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3748.258696799038</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>212.7178686028331</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>623.6081374473457</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>870.3732653538098</v>
+        <v>1175.021394210047</v>
       </c>
       <c r="M39" t="n">
-        <v>1177.693398633771</v>
+        <v>1482.341527490009</v>
       </c>
       <c r="N39" t="n">
-        <v>1507.556026297804</v>
+        <v>1812.204155154042</v>
       </c>
       <c r="O39" t="n">
-        <v>1787.096091516501</v>
+        <v>2091.744220372739</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026575</v>
+        <v>638.3928643026566</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147916</v>
+        <v>538.2767724147907</v>
       </c>
       <c r="D40" t="n">
-        <v>456.980224042497</v>
+        <v>456.980224042496</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001449</v>
+        <v>377.887221500144</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422756</v>
+        <v>299.8173650422747</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021372</v>
+        <v>200.4621344021364</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211004</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443643</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.61895581732</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
         <v>2017.453465576481</v>
@@ -7357,25 +7357,25 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.363186054322</v>
+        <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963453</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928562</v>
+        <v>751.2212380928552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872893</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922883</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>379.9072094774265</v>
       </c>
       <c r="L41" t="n">
-        <v>1156.336370582085</v>
+        <v>1081.511365521224</v>
       </c>
       <c r="M41" t="n">
-        <v>1826.996552080634</v>
+        <v>1878.787719241115</v>
       </c>
       <c r="N41" t="n">
-        <v>2189.5682180168</v>
+        <v>2674.332840345146</v>
       </c>
       <c r="O41" t="n">
-        <v>2895.591279040996</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296799</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y41" t="n">
         <v>2243.29312148622</v>
@@ -7485,25 +7485,25 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
         <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
-        <v>623.6081374473457</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L42" t="n">
-        <v>870.3732653538098</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.693398633771</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N42" t="n">
-        <v>1507.556026297804</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O42" t="n">
-        <v>1787.096091516501</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P42" t="n">
         <v>2307.396713252248</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026569</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.276772414791</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422756</v>
+        <v>299.817365042275</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021373</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901211</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
         <v>155.982980344364</v>
@@ -7576,31 +7576,31 @@
         <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N43" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P43" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R43" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928555</v>
       </c>
     </row>
     <row r="44">
@@ -7631,64 +7631,64 @@
         <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.957177436857</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872904</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922896</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432326</v>
+        <v>599.5145705902881</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.820972987031</v>
+        <v>1301.118726634086</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1653.376682196073</v>
       </c>
       <c r="N44" t="n">
-        <v>2284.650594485183</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234532</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490335</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799038</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873104</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.258029643031</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421992</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
         <v>2243.293121486221</v>
@@ -7722,25 +7722,25 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>212.7178686028331</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
-        <v>623.6081374473457</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L45" t="n">
-        <v>870.3732653538098</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M45" t="n">
-        <v>1177.693398633771</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N45" t="n">
-        <v>1507.556026297804</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O45" t="n">
-        <v>1787.096091516501</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
         <v>2307.396713252248</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424963</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L46" t="n">
         <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
@@ -7825,7 +7825,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
@@ -7837,7 +7837,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>281.3133266100198</v>
       </c>
       <c r="N3" t="n">
-        <v>236.1308877972191</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>108.2245426988758</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>95.77824488244659</v>
       </c>
       <c r="M6" t="n">
-        <v>379.0395396235039</v>
+        <v>434.0896122856906</v>
       </c>
       <c r="N6" t="n">
-        <v>80.10280645193093</v>
+        <v>413.2249392811236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>114.8336753070147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>182.0340742867946</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>224.9319870457283</v>
+        <v>109.3837708052258</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,19 +10826,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>261.7930203334332</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>109.3837708052258</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>321.6184100369318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>153.1122650556316</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>52.72900211364509</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>224.9319870457283</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>116.9569745072585</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.96349418105302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>257.3035172523226</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>96.59740507592124</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>94.99992104262833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>225.8648881236606</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>146.2596591713298</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>35.32873962452607</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.02826101692432</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800788</v>
+        <v>26.0247067809781</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141958</v>
+        <v>92.01815992141962</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
         <v>200.1835678092424</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>75.34096991278476</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>116.1589455210388</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141964</v>
+        <v>92.01815992141962</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094044</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.345126036064</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141962</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S31" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>158.4638411447681</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="C2" t="n">
         <v>328416.7079457133</v>
-      </c>
-      <c r="C2" t="n">
-        <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457134</v>
@@ -26323,22 +26323,22 @@
         <v>312823.247790167</v>
       </c>
       <c r="F2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="G2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312823.2477901669</v>
       </c>
       <c r="H2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="I2" t="n">
+        <v>317034.7351521833</v>
+      </c>
+      <c r="J2" t="n">
         <v>317034.7351521832</v>
       </c>
-      <c r="J2" t="n">
-        <v>317034.7351521833</v>
-      </c>
       <c r="K2" t="n">
-        <v>317034.7351521832</v>
+        <v>317034.7351521831</v>
       </c>
       <c r="L2" t="n">
         <v>328416.7079457135</v>
@@ -26347,13 +26347,13 @@
         <v>328416.7079457132</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457131</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794792</v>
+        <v>72744.75223794726</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936395</v>
+        <v>348321.8962936403</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428192</v>
+        <v>14720.86843428189</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113903</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303615</v>
+        <v>16913.40047303599</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741629</v>
+        <v>123915.625874163</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762908</v>
+        <v>69175.08933762906</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.86843428186</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211186</v>
+        <v>296337.3092211189</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,16 +26427,16 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="H4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="G4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43561.42148316557</v>
-      </c>
       <c r="I4" t="n">
-        <v>49616.29565456441</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
         <v>49616.2956545644</v>
@@ -26445,19 +26445,19 @@
         <v>49616.29565456437</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.1297976678</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766783</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049171</v>
+        <v>56410.20653049165</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-165984.9814547921</v>
       </c>
       <c r="C6" t="n">
-        <v>-97075.56004384471</v>
+        <v>-97075.56004384445</v>
       </c>
       <c r="D6" t="n">
-        <v>-294970.8628037653</v>
+        <v>-294970.862803766</v>
       </c>
       <c r="E6" t="n">
-        <v>-347885.5361186113</v>
+        <v>-347982.9952445835</v>
       </c>
       <c r="F6" t="n">
-        <v>177274.5003582849</v>
+        <v>177177.0412323126</v>
       </c>
       <c r="G6" t="n">
-        <v>177274.5003582847</v>
+        <v>177177.0412323126</v>
       </c>
       <c r="H6" t="n">
-        <v>177274.5003582847</v>
+        <v>177177.0412323126</v>
       </c>
       <c r="I6" t="n">
-        <v>159163.2842541182</v>
+        <v>159092.1469241587</v>
       </c>
       <c r="J6" t="n">
-        <v>101629.4578172612</v>
+        <v>101558.3204873015</v>
       </c>
       <c r="K6" t="n">
-        <v>156970.7522153639</v>
+        <v>156899.6148854045</v>
       </c>
       <c r="L6" t="n">
-        <v>40805.76752703926</v>
+        <v>40805.76752703909</v>
       </c>
       <c r="M6" t="n">
-        <v>77700.58784460455</v>
+        <v>77700.58784460451</v>
       </c>
       <c r="N6" t="n">
         <v>132154.8087479518</v>
       </c>
       <c r="O6" t="n">
-        <v>146875.6771822336</v>
+        <v>146875.677182234</v>
       </c>
       <c r="P6" t="n">
-        <v>146875.6771822339</v>
+        <v>146875.6771822335</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020407</v>
+        <v>91.59216845020352</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690339</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678832</v>
+        <v>49.73080458678825</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107873</v>
+        <v>56.57090773107822</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668825</v>
+        <v>286.1514957668831</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667842</v>
+        <v>65.71679646667781</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667864</v>
+        <v>65.71679646667803</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855214</v>
+        <v>332.4139625855221</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968197</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667842</v>
+        <v>65.71679646667781</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>303.0239511148266</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>180.6410290496118</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>68.33299615026722</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>215.5878934358284</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>40.05705990322787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>65.00273557267752</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>314.4420067325989</v>
+        <v>114.5191260646222</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470833</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>7.367658548379779</v>
       </c>
       <c r="X5" t="n">
-        <v>27.85779050943512</v>
+        <v>27.8577905094358</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>134.3794127503878</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
         <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.61362792373491</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923671</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
         <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>248.39190129482</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2716806564903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>160.7586947903199</v>
       </c>
       <c r="I7" t="n">
-        <v>150.4834766775325</v>
+        <v>76.23705288320507</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475085</v>
+        <v>81.68192939475092</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571356</v>
+        <v>72.33162581571365</v>
       </c>
       <c r="R7" t="n">
-        <v>169.866918177912</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>221.1382015301027</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>221.6844260780596</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>25.31777693171261</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.84727966881374</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>117.5528344178353</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="C25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="D25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="F25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="G25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="H25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="I25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="K25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="L25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="M25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="N25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="S25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="T25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="U25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="V25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="W25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="X25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285236</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285234</v>
+        <v>18.40108554285236</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964096</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964148</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964096</v>
+        <v>68.13189012964187</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964199</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128804</v>
+        <v>0.3682097224128782</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660912</v>
+        <v>3.77092781966089</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332259</v>
+        <v>14.1954053233225</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764024</v>
+        <v>31.25133992764005</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737748</v>
+        <v>46.83765747737719</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967067</v>
+        <v>58.10625576967032</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063074</v>
+        <v>64.65440542063034</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443633</v>
+        <v>65.70058129443593</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719325</v>
+        <v>62.03919586719287</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512526</v>
+        <v>52.94901834512494</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121397</v>
+        <v>39.76250766121372</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551812</v>
+        <v>23.12955397551798</v>
       </c>
       <c r="S5" t="n">
-        <v>8.39057904948352</v>
+        <v>8.39057904948347</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862385</v>
+        <v>1.611838059862375</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303043</v>
+        <v>0.02945677779303025</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740238</v>
+        <v>0.1970095698740227</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993862</v>
+        <v>1.902697687993851</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680208</v>
+        <v>6.783004927680167</v>
       </c>
       <c r="J6" t="n">
-        <v>18.613083967791</v>
+        <v>18.61308396779089</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8127251493506</v>
+        <v>31.81272514935041</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742786</v>
+        <v>42.7761348974276</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536121</v>
+        <v>49.91773180536091</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140237</v>
+        <v>51.23890563140206</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998321</v>
+        <v>46.87358831998293</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707533005</v>
+        <v>37.62018707532982</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900698</v>
+        <v>25.14809877900683</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2318748734065</v>
+        <v>12.23187487340643</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703906</v>
+        <v>3.659366352703883</v>
       </c>
       <c r="T6" t="n">
-        <v>0.794086818922052</v>
+        <v>0.7940868189220472</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276473</v>
+        <v>0.01296115591276465</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020073</v>
+        <v>0.1651662054020063</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119666</v>
+        <v>1.468477717119657</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725822</v>
+        <v>4.966998249725791</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192192</v>
+        <v>11.67725072192185</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579685</v>
+        <v>19.18931004579673</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040389</v>
+        <v>24.55571021040375</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224374</v>
+        <v>25.89055345224359</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938174</v>
+        <v>25.27493395938158</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809464</v>
+        <v>23.3454923780945</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789368</v>
+        <v>19.97610178789356</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598081</v>
+        <v>13.83041743598073</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257527</v>
+        <v>7.426473199257482</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869527</v>
+        <v>2.878396506869509</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540311</v>
+        <v>0.7057101503540268</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00900906574920041</v>
+        <v>0.009009065749200355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>158.2658797799247</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3809279722199</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302772</v>
+        <v>19.30205057302753</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035617</v>
+        <v>150.8932190035614</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501339</v>
+        <v>240.0010553501335</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861905</v>
+        <v>283.8217056861901</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098296</v>
+        <v>273.6344421098292</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082519</v>
+        <v>212.7411657082515</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613384</v>
+        <v>143.5147307613381</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666916</v>
+        <v>29.77180844666892</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86649264153315</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.4365231875702</v>
+        <v>158.43652318757</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210129</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>286.8232375068468</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>333.1221328291923</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522683</v>
+        <v>298.139663152268</v>
       </c>
       <c r="P6" t="n">
-        <v>222.108548300937</v>
+        <v>222.1085483009367</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.24361242883455</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547072003</v>
+        <v>52.14573547071988</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408434</v>
+        <v>65.47443041408417</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861033</v>
+        <v>69.40710633861018</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213432</v>
+        <v>47.93062029213418</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278717</v>
+        <v>17.25466105278705</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>492.4584513372609</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,7 +36443,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841793</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K25" t="n">
-        <v>170.103514072763</v>
+        <v>170.1035140727629</v>
       </c>
       <c r="L25" t="n">
         <v>268.6152724227809</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546532</v>
+        <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472716</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841787</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.6267855147271</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37315,13 +37315,13 @@
         <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>557.2864128781301</v>
+        <v>441.7381966376277</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,19 +37546,19 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>552.8228724938899</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>441.7381966376277</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>677.434526766211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>485.4666908880334</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>257.2733456728134</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38026,13 +38026,13 @@
         <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>557.2864128781301</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
